--- a/Results with weightings.xlsx
+++ b/Results with weightings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10728" windowHeight="5508" xr2:uid="{717B9D3F-5377-4827-AD40-F1DE4C416B2F}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10728" windowHeight="5508" xr2:uid="{717B9D3F-5377-4827-AD40-F1DE4C416B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Module</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>REQUIRED MARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -602,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E11AD6-9A61-4144-BF9D-7303F51D856B}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -1283,14 +1280,14 @@
         <v>31</v>
       </c>
       <c r="B36" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D36" s="1">
         <f>(B36/100)*(120*C36)</f>
-        <v>5.9976000000000003</v>
+        <v>6.7972800000000007</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1302,14 +1299,14 @@
         <v>32</v>
       </c>
       <c r="B37" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ref="D37:D47" si="3">(B37/100)*(120*C37)</f>
-        <v>5.9976000000000003</v>
+        <v>5.89764</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1321,14 +1318,14 @@
         <v>33</v>
       </c>
       <c r="B38" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="3"/>
-        <v>5.9976000000000003</v>
+        <f>(B38/100)*(120*C38)</f>
+        <v>6.89724</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1340,14 +1337,14 @@
         <v>34</v>
       </c>
       <c r="B39" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="3"/>
-        <v>5.9976000000000003</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1359,14 +1356,14 @@
         <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="3"/>
-        <v>5.9976000000000003</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1378,14 +1375,14 @@
         <v>35</v>
       </c>
       <c r="B41" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="3"/>
-        <v>5.9976000000000003</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1454,14 +1451,14 @@
         <v>40</v>
       </c>
       <c r="B45" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="3"/>
-        <v>13.65</v>
+        <v>15.75</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1503,22 +1500,23 @@
       </c>
       <c r="E47" s="1">
         <f>SUM(D36:D47)</f>
-        <v>80.59559999999999</v>
+        <v>81.296160000000015</v>
       </c>
       <c r="F47" s="1">
         <f>(E47/120)*100</f>
-        <v>67.162999999999997</v>
+        <v>67.746800000000007</v>
       </c>
       <c r="G47" s="1">
         <f>F47*0.375</f>
-        <v>25.186124999999997</v>
+        <v>25.405050000000003</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
+      <c r="B48" s="1">
+        <f>SUM(B36:B47)/12</f>
+        <v>67.75</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1528,7 +1526,7 @@
       </c>
       <c r="G48" s="3">
         <f>SUM(G47,G32,G20)</f>
-        <v>69.512137499999994</v>
+        <v>69.731062500000007</v>
       </c>
       <c r="H48" s="1"/>
     </row>
